--- a/data/historical-distributions.xlsx
+++ b/data/historical-distributions.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="368">
   <si>
     <t>latin_name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>American seashells</t>
-  </si>
-  <si>
-    <t>this might need to be excluded from the study - is it possible it was confused with acanthina punctulata?</t>
   </si>
   <si>
     <t>Intertidal Invertebrates from Central CA to OR</t>
@@ -274,9 +271,6 @@
     <t>https://www.sealifebase.se/summary/Candacia-curta.html</t>
   </si>
   <si>
-    <t>this might need to be excluded from the study</t>
-  </si>
-  <si>
     <t>Centropages bradyi</t>
   </si>
   <si>
@@ -458,9 +452,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Intertidal Invertebrates from Central CA to OR?</t>
-  </si>
-  <si>
-    <t>It is unclear in the text if this species shares its range with Doriopsilla albopunctata</t>
   </si>
   <si>
     <t>Abalone Beach, CA</t>
@@ -1672,9 +1663,6 @@
     <t>https://en.wikipedia.org/wiki/Rhincalanus_nasutus</t>
   </si>
   <si>
-    <t>very little data available</t>
-  </si>
-  <si>
     <t>Sagitta pseudoserratodentata</t>
   </si>
   <si>
@@ -1712,9 +1700,6 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Thylacodes_squamigerus</t>
-  </si>
-  <si>
-    <t>*this is the same as Serpulorbis squamigerus. this is the more recent name.</t>
   </si>
   <si>
     <t>scaled worm shell</t>
@@ -2614,14 +2599,12 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="L2" s="4"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -2636,7 +2619,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="9">
         <v>89.0</v>
@@ -2646,9 +2629,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="L3" s="4"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -2664,13 +2645,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="10">
         <v>38.1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="9">
         <v>89.0</v>
@@ -2680,36 +2661,34 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="L4" s="4"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -2719,31 +2698,31 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="12">
         <v>37.89</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -2753,29 +2732,29 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2785,33 +2764,33 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="14">
         <v>37.5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="4">
         <v>182.0</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -2821,29 +2800,29 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2853,33 +2832,33 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="C10" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="10">
         <v>34.5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="4">
         <v>787.0</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2889,29 +2868,29 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2923,28 +2902,28 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="C12" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="12">
         <v>36.78</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="4">
         <v>788.0</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2957,28 +2936,28 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="4">
         <v>22.8</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="4">
         <v>917.0</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2991,13 +2970,13 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="D14" s="10">
         <v>34.5</v>
@@ -3010,7 +2989,7 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -3023,26 +3002,26 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="4">
         <v>788.0</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -3055,28 +3034,28 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="C16" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4">
         <v>37.53</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="4">
         <v>788.0</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -3089,26 +3068,26 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D17" s="10">
         <v>34.5</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -3122,84 +3101,80 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M18" s="8"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>64</v>
       </c>
       <c r="D19" s="10">
         <v>34.5</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M19" s="8"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="10">
         <v>34.5</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -3210,24 +3185,24 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>77</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -3240,28 +3215,28 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" s="10">
         <v>34.5</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="4">
         <v>198.0</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -3274,26 +3249,26 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="4">
         <v>66.0</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -3306,24 +3281,24 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -3336,28 +3311,28 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25" s="10">
         <v>34.5</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="4">
         <v>172.0</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3369,26 +3344,26 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" s="4">
         <v>54.0</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -3401,28 +3376,28 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D27" s="10">
         <v>34.5</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="4">
         <v>775.0</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -3435,28 +3410,28 @@
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D28" s="10">
         <v>34.5</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="4">
         <v>73.0</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -3469,82 +3444,78 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>95</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M29" s="8"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D30" s="10">
         <v>33.475</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M30" s="8"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>101</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3558,26 +3529,26 @@
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D32" s="10">
         <v>34.5</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3591,24 +3562,24 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -3620,26 +3591,26 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" s="4">
         <v>801.0</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3651,26 +3622,26 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="12">
         <v>39.31</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
@@ -3682,24 +3653,24 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -3712,31 +3683,29 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F37" s="4">
         <v>801.0</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L37" s="3"/>
-      <c r="M37" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="M37" s="4"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -3746,31 +3715,29 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="4">
         <v>33.74</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L38" s="3"/>
-      <c r="M38" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="M38" s="4"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
@@ -3780,24 +3747,24 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -3810,26 +3777,26 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>123</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F40" s="4">
         <v>700.0</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -3842,26 +3809,26 @@
     </row>
     <row r="41">
       <c r="A41" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D41" s="4">
         <v>32.5</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -3874,24 +3841,24 @@
     </row>
     <row r="42">
       <c r="A42" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -3903,26 +3870,26 @@
     </row>
     <row r="43">
       <c r="A43" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>129</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" s="4">
         <v>654.0</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -3935,26 +3902,26 @@
     </row>
     <row r="44">
       <c r="A44" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D44" s="5">
         <v>32.67</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -3967,24 +3934,24 @@
     </row>
     <row r="45">
       <c r="A45" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -3997,28 +3964,28 @@
     </row>
     <row r="46">
       <c r="A46" s="24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B46" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="26" t="s">
         <v>132</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>135</v>
       </c>
       <c r="D46" s="4">
         <v>22.8</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" s="27">
         <v>917.0</v>
       </c>
       <c r="G46" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
@@ -4038,24 +4005,24 @@
     </row>
     <row r="47">
       <c r="A47" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4066,26 +4033,26 @@
     </row>
     <row r="48">
       <c r="A48" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D48" s="4">
         <v>32.5</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -4096,23 +4063,23 @@
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -4122,25 +4089,25 @@
     </row>
     <row r="50">
       <c r="A50" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D50" s="10">
         <v>34.5</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -4150,24 +4117,24 @@
     </row>
     <row r="51">
       <c r="A51" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -4178,25 +4145,25 @@
     </row>
     <row r="52">
       <c r="A52" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D52" s="10">
         <v>34.5</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -4207,24 +4174,24 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="3"/>
@@ -4236,24 +4203,24 @@
     </row>
     <row r="54">
       <c r="A54" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="3"/>
@@ -4265,26 +4232,26 @@
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D55" s="4">
         <v>32.5</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M55" s="4"/>
       <c r="N55" s="3"/>
@@ -4296,23 +4263,23 @@
     </row>
     <row r="56">
       <c r="A56" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -4321,25 +4288,25 @@
     </row>
     <row r="57">
       <c r="A57" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B57" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="D57" s="10">
         <v>32.5</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -4348,23 +4315,23 @@
     </row>
     <row r="58">
       <c r="A58" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
@@ -4373,25 +4340,25 @@
     </row>
     <row r="59">
       <c r="A59" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="D59" s="10">
         <v>32.5</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -4400,24 +4367,24 @@
     </row>
     <row r="60">
       <c r="A60" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -4430,46 +4397,44 @@
     </row>
     <row r="61">
       <c r="A61" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>168</v>
       </c>
       <c r="D61" s="4">
         <v>32.5</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F61" s="4">
         <v>80.0</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L61" s="3"/>
-      <c r="M61" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="M61" s="8"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D62" s="12">
         <v>38.312</v>
@@ -4481,10 +4446,10 @@
         <v>176.0</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -4497,24 +4462,24 @@
     </row>
     <row r="63">
       <c r="A63" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -4526,25 +4491,25 @@
     </row>
     <row r="64">
       <c r="A64" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B64" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="D64" s="5">
         <v>34.5</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -4556,119 +4521,113 @@
     </row>
     <row r="65">
       <c r="A65" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L65" s="3"/>
-      <c r="M65" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="M65" s="8"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>182</v>
       </c>
       <c r="D66" s="4">
         <v>34.5</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F66" s="4">
         <v>775.0</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L66" s="3"/>
-      <c r="M66" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="M66" s="8"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D67" s="4">
         <v>34.5</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F67" s="4">
         <v>403.0</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L67" s="3"/>
-      <c r="M67" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="M67" s="8"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -4680,28 +4639,28 @@
     </row>
     <row r="69">
       <c r="A69" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>189</v>
       </c>
       <c r="D69" s="12">
         <v>36.78</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F69" s="4">
         <v>403.0</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -4713,23 +4672,23 @@
     </row>
     <row r="70">
       <c r="A70" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -4742,26 +4701,26 @@
     </row>
     <row r="71">
       <c r="A71" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71" s="33" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F71" s="4">
         <v>803.0</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -4773,25 +4732,25 @@
     </row>
     <row r="72">
       <c r="A72" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D72" s="14">
         <v>37.5</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -4803,28 +4762,28 @@
     </row>
     <row r="73">
       <c r="A73" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D73" s="12">
         <v>34.39</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F73" s="7">
         <v>97.0</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -4837,26 +4796,26 @@
     </row>
     <row r="74">
       <c r="A74" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B74" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F74" s="9">
         <v>743.0</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -4869,24 +4828,24 @@
     </row>
     <row r="75">
       <c r="A75" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -4899,28 +4858,28 @@
     </row>
     <row r="76">
       <c r="A76" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B76" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>205</v>
       </c>
       <c r="D76" s="12">
         <v>36.78</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F76" s="4">
         <v>946.0</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -4933,10 +4892,10 @@
     </row>
     <row r="77">
       <c r="A77" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>11</v>
@@ -4950,63 +4909,59 @@
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M77" s="8"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="D78" s="5">
         <v>32.67</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="3"/>
       <c r="H78" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="M78" s="8" t="s">
-        <v>71</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M78" s="8"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
@@ -5015,25 +4970,25 @@
     </row>
     <row r="80">
       <c r="A80" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D80" s="5">
         <v>32.5</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
@@ -5042,24 +4997,24 @@
     </row>
     <row r="81">
       <c r="A81" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
@@ -5071,28 +5026,28 @@
     </row>
     <row r="82">
       <c r="A82" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="D82" s="4">
         <v>34.5</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F82" s="4">
         <v>920.0</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
@@ -5104,28 +5059,28 @@
     </row>
     <row r="83">
       <c r="A83" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D83" s="4">
         <v>22.8</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F83" s="7">
         <v>128.0</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
@@ -5137,66 +5092,66 @@
     </row>
     <row r="84">
       <c r="A84" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="8"/>
       <c r="H84" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C85" s="17" t="s">
         <v>226</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="D85" s="4">
         <v>34.5</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F85" s="4">
         <v>917.0</v>
       </c>
       <c r="G85" s="8"/>
       <c r="H85" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="8"/>
       <c r="H86" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
@@ -5213,24 +5168,24 @@
     </row>
     <row r="87">
       <c r="A87" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="D87" s="32">
         <v>35.3</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="8"/>
       <c r="H87" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
@@ -5247,26 +5202,26 @@
     </row>
     <row r="88">
       <c r="A88" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D88" s="12">
         <v>36.78</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" s="4">
         <v>483.0</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="11" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
@@ -5283,22 +5238,22 @@
     </row>
     <row r="89">
       <c r="A89" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="8"/>
       <c r="H89" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
@@ -5315,23 +5270,23 @@
     </row>
     <row r="90">
       <c r="A90" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D90" s="5">
         <v>31.8</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
@@ -5348,22 +5303,22 @@
     </row>
     <row r="91">
       <c r="A91" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="8"/>
       <c r="H91" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
@@ -5380,24 +5335,24 @@
     </row>
     <row r="92">
       <c r="A92" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C92" s="37" t="s">
         <v>247</v>
-      </c>
-      <c r="C92" s="37" t="s">
-        <v>250</v>
       </c>
       <c r="D92" s="32">
         <v>35.41</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="8"/>
       <c r="H92" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
@@ -5414,22 +5369,22 @@
     </row>
     <row r="93">
       <c r="A93" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C93" s="38" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="8"/>
       <c r="H93" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -5445,26 +5400,26 @@
     </row>
     <row r="94">
       <c r="A94" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C94" s="38" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D94" s="4">
         <v>32.5</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F94" s="4">
         <v>632.0</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
@@ -5480,24 +5435,24 @@
     </row>
     <row r="95">
       <c r="A95" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -5513,25 +5468,25 @@
     </row>
     <row r="96">
       <c r="A96" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D96" s="4">
         <v>22.8</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
@@ -5547,24 +5502,24 @@
     </row>
     <row r="97">
       <c r="A97" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
@@ -5580,25 +5535,25 @@
     </row>
     <row r="98">
       <c r="A98" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D98" s="4">
         <v>22.8</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
@@ -5614,26 +5569,26 @@
     </row>
     <row r="99">
       <c r="A99" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D99" s="14">
         <v>37.5</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F99" s="4">
         <v>798.0</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -5649,24 +5604,24 @@
     </row>
     <row r="100">
       <c r="A100" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
@@ -5682,25 +5637,25 @@
     </row>
     <row r="101">
       <c r="A101" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>272</v>
       </c>
       <c r="D101" s="12">
         <v>37.69</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
@@ -5716,13 +5671,13 @@
     </row>
     <row r="102">
       <c r="A102" s="39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D102" s="12">
         <v>36.78</v>
@@ -5730,10 +5685,10 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
@@ -5749,24 +5704,24 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C103" s="41" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -5782,25 +5737,25 @@
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C104" s="41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D104" s="5">
         <v>32.5</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -5816,24 +5771,24 @@
     </row>
     <row r="105">
       <c r="A105" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -5849,25 +5804,25 @@
     </row>
     <row r="106">
       <c r="A106" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D106" s="5">
         <v>34.5</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -5883,26 +5838,26 @@
     </row>
     <row r="107">
       <c r="A107" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D107" s="12">
         <v>36.78</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F107" s="4">
         <v>483.0</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="11" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -5918,58 +5873,58 @@
     </row>
     <row r="108">
       <c r="A108" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="4"/>
       <c r="H108" s="43" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C109" s="22" t="s">
         <v>289</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>292</v>
       </c>
       <c r="D109" s="12">
         <v>41.05</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="43" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F110" s="4">
         <v>805.0</v>
@@ -5977,241 +5932,241 @@
     </row>
     <row r="111">
       <c r="A111" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D111" s="12">
         <v>37.89</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D112" s="4"/>
       <c r="E112" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F112" s="4">
         <v>165.0</v>
       </c>
       <c r="H112" s="44" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C113" s="22" t="s">
         <v>297</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>300</v>
       </c>
       <c r="D113" s="12">
         <v>36.78</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H113" s="44" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D114" s="5">
         <v>32.5</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F114" s="4">
         <v>654.0</v>
       </c>
       <c r="H114" s="43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B115" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C115" s="37" t="s">
         <v>302</v>
-      </c>
-      <c r="C115" s="37" t="s">
-        <v>305</v>
       </c>
       <c r="D115" s="32"/>
       <c r="E115" s="13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F115" s="3"/>
       <c r="H115" s="43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C116" s="36" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F116" s="3"/>
       <c r="H116" s="43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C117" s="41" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F117" s="3"/>
       <c r="H117" s="43" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B118" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C118" s="41" t="s">
         <v>309</v>
-      </c>
-      <c r="C118" s="41" t="s">
-        <v>312</v>
       </c>
       <c r="D118" s="4">
         <v>34.5</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F118" s="3"/>
       <c r="H118" s="43" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C119" s="41" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D119" s="32"/>
       <c r="E119" s="13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F119" s="3"/>
       <c r="H119" s="43" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C120" s="45" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F120" s="3"/>
       <c r="H120" s="43" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B121" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C121" s="37" t="s">
         <v>316</v>
-      </c>
-      <c r="C121" s="37" t="s">
-        <v>319</v>
       </c>
       <c r="D121" s="4">
         <v>40.0</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F121" s="4">
         <v>84.0</v>
       </c>
       <c r="H121" s="43" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C122" s="45" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D122" s="4"/>
       <c r="E122" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F122" s="3"/>
       <c r="H122" s="43" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
@@ -6227,30 +6182,28 @@
     </row>
     <row r="123">
       <c r="A123" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C123" s="36" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
-      <c r="M123" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="M123" s="4"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
@@ -6260,32 +6213,30 @@
     </row>
     <row r="124">
       <c r="A124" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B124" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C124" s="37" t="s">
         <v>63</v>
-      </c>
-      <c r="C124" s="37" t="s">
-        <v>64</v>
       </c>
       <c r="D124" s="4">
         <v>34.5</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
-      <c r="M124" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="M124" s="4"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
@@ -6295,30 +6246,28 @@
     </row>
     <row r="125">
       <c r="A125" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C125" s="46" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
-      <c r="M125" s="4" t="s">
-        <v>324</v>
-      </c>
+      <c r="M125" s="4"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
@@ -6328,31 +6277,29 @@
     </row>
     <row r="126">
       <c r="A126" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B126" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C126" s="10" t="s">
         <v>325</v>
-      </c>
-      <c r="B126" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C126" s="10" t="s">
-        <v>329</v>
       </c>
       <c r="D126" s="5">
         <v>42.0</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G126" s="29"/>
       <c r="H126" s="28" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I126" s="29"/>
       <c r="J126" s="29"/>
       <c r="K126" s="29"/>
       <c r="L126" s="29"/>
-      <c r="M126" s="25" t="s">
-        <v>324</v>
-      </c>
+      <c r="M126" s="25"/>
       <c r="N126" s="29"/>
       <c r="O126" s="29"/>
       <c r="P126" s="29"/>
@@ -6369,22 +6316,22 @@
     </row>
     <row r="127">
       <c r="A127" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D127" s="4"/>
       <c r="E127" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
@@ -6399,24 +6346,24 @@
     </row>
     <row r="128">
       <c r="A128" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D128" s="4">
         <v>34.5</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -6431,34 +6378,32 @@
     </row>
     <row r="129">
       <c r="A129" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D129" s="4">
         <v>34.5</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F129" s="4">
         <v>735.0</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
-      <c r="M129" s="4" t="s">
-        <v>338</v>
-      </c>
+      <c r="M129" s="4"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
@@ -6468,32 +6413,30 @@
     </row>
     <row r="130">
       <c r="A130" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="C130" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F130" s="4">
         <v>68.0</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
-      <c r="M130" s="4" t="s">
-        <v>338</v>
-      </c>
+      <c r="M130" s="4"/>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
@@ -6503,22 +6446,22 @@
     </row>
     <row r="131">
       <c r="A131" s="8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="11" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
@@ -6534,23 +6477,23 @@
     </row>
     <row r="132">
       <c r="A132" s="8" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C132" s="48" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D132" s="12">
         <v>37.0</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" s="11" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -6566,26 +6509,26 @@
     </row>
     <row r="133">
       <c r="A133" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D133" s="14">
         <v>37.5</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F133" s="4">
         <v>482.0</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="11" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -6601,22 +6544,22 @@
     </row>
     <row r="134">
       <c r="A134" s="8" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C134" s="49" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="3"/>
       <c r="H134" s="11" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -6632,22 +6575,22 @@
     </row>
     <row r="135">
       <c r="A135" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C135" s="41" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D135" s="4"/>
       <c r="E135" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
@@ -6663,24 +6606,24 @@
     </row>
     <row r="136">
       <c r="A136" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C136" s="41" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D136" s="4"/>
       <c r="E136" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F136" s="4">
         <v>82.0</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -6696,13 +6639,13 @@
     </row>
     <row r="137">
       <c r="A137" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C137" s="50" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D137" s="4">
         <v>35.0</v>
@@ -6711,7 +6654,7 @@
       <c r="F137" s="4"/>
       <c r="G137" s="3"/>
       <c r="H137" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -6727,24 +6670,24 @@
     </row>
     <row r="138">
       <c r="A138" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F138" s="4">
         <v>82.0</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" s="11" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -6760,24 +6703,24 @@
     </row>
     <row r="139">
       <c r="A139" s="8" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F139" s="4">
         <v>964.0</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="11" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -6793,26 +6736,26 @@
     </row>
     <row r="140">
       <c r="A140" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C140" s="50" t="s">
         <v>357</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C140" s="50" t="s">
-        <v>362</v>
       </c>
       <c r="D140" s="4">
         <v>42.0</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F140" s="4">
         <v>964.0</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="11" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -6828,22 +6771,22 @@
     </row>
     <row r="141">
       <c r="A141" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C141" s="42" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="11" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -6859,24 +6802,24 @@
     </row>
     <row r="142">
       <c r="A142" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D142" s="4">
         <v>22.8</v>
       </c>
       <c r="E142" s="13" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="11" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
@@ -6892,26 +6835,26 @@
     </row>
     <row r="143">
       <c r="A143" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D143" s="4">
         <v>34.5</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F143" s="4">
         <v>31.0</v>
       </c>
       <c r="G143" s="3"/>
       <c r="H143" s="11" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>

--- a/data/historical-distributions.xlsx
+++ b/data/historical-distributions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordanasevigny/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE2FA4C-52B1-6845-A7E3-86D958FC7BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4794F01A-E69F-0C48-93CC-26CC3BA63914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2043,14 +2043,14 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2272,7 +2272,7 @@
   <dimension ref="A1:Z147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2294,7 +2294,7 @@
       <c r="C1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="41" t="s">
         <v>296</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2335,17 +2335,17 @@
       <c r="F2" s="5">
         <v>211</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="41" t="s">
         <v>295</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -2367,17 +2367,17 @@
       <c r="F3" s="6">
         <v>89</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="41" t="s">
         <v>295</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -2401,17 +2401,17 @@
       <c r="F4" s="6">
         <v>89</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="41" t="s">
         <v>295</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -2434,10 +2434,10 @@
       <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2466,10 +2466,10 @@
       <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2496,10 +2496,10 @@
       <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -2530,10 +2530,10 @@
       <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2560,10 +2560,10 @@
       <c r="G9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2594,10 +2594,10 @@
       <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2624,10 +2624,10 @@
       <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2658,10 +2658,10 @@
       <c r="G12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2671,7 +2671,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" ht="16">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -2693,10 +2693,10 @@
       <c r="G13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2706,7 +2706,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" ht="16">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -2726,10 +2726,10 @@
         <v>485</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2739,7 +2739,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" ht="16">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -2759,10 +2759,10 @@
       <c r="G15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2772,7 +2772,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" ht="16">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,10 +2794,10 @@
       <c r="G16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2807,7 +2807,7 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" ht="16">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -2827,9 +2827,9 @@
       <c r="G17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2858,15 +2858,15 @@
       <c r="G18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
       <c r="M18" s="45"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2891,20 +2891,20 @@
       <c r="G19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="45"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" ht="16">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -2924,12 +2924,12 @@
       <c r="G20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2937,7 +2937,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" ht="20">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -2955,10 +2955,10 @@
       <c r="G21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2968,7 +2968,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" ht="20">
       <c r="A22" s="1" t="s">
         <v>59</v>
       </c>
@@ -2990,10 +2990,10 @@
       <c r="G22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -3003,7 +3003,7 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" ht="20">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -3023,10 +3023,10 @@
       <c r="G23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -3054,10 +3054,10 @@
       <c r="G24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -3089,10 +3089,10 @@
       <c r="G25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -3121,10 +3121,10 @@
       <c r="G26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -3144,9 +3144,7 @@
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="7">
-        <v>34.5</v>
-      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="2" t="s">
         <v>29</v>
       </c>
@@ -3156,10 +3154,10 @@
       <c r="G27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -3191,10 +3189,10 @@
       <c r="G28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -3204,7 +3202,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" ht="20">
       <c r="A29" s="1" t="s">
         <v>73</v>
       </c>
@@ -3222,20 +3220,20 @@
       <c r="G29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
       <c r="M29" s="45"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" ht="16">
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
@@ -3255,20 +3253,20 @@
       <c r="G30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
       <c r="M30" s="45"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" ht="16">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
@@ -3286,9 +3284,9 @@
       <c r="G31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3299,7 +3297,7 @@
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" ht="16">
       <c r="A32" s="1" t="s">
         <v>78</v>
       </c>
@@ -3319,9 +3317,9 @@
       <c r="G32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -3332,7 +3330,7 @@
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="20">
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
@@ -3350,11 +3348,11 @@
       <c r="G33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -3363,7 +3361,7 @@
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="20">
       <c r="A34" s="1" t="s">
         <v>82</v>
       </c>
@@ -3383,11 +3381,11 @@
       <c r="G34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -3396,7 +3394,7 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="20">
       <c r="A35" s="1" t="s">
         <v>82</v>
       </c>
@@ -3416,11 +3414,11 @@
       <c r="G35" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3429,7 +3427,7 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="20">
       <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
@@ -3447,10 +3445,10 @@
       <c r="G36" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -3460,7 +3458,7 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="20">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
@@ -3480,10 +3478,10 @@
       <c r="G37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
       <c r="L37" s="1"/>
       <c r="M37" s="2"/>
       <c r="N37" s="1"/>
@@ -3493,7 +3491,7 @@
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="16">
       <c r="A38" s="1" t="s">
         <v>87</v>
       </c>
@@ -3513,10 +3511,10 @@
       <c r="G38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
       <c r="L38" s="1"/>
       <c r="M38" s="2"/>
       <c r="N38" s="1"/>
@@ -3526,7 +3524,7 @@
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="20">
       <c r="A39" s="1" t="s">
         <v>92</v>
       </c>
@@ -3544,10 +3542,10 @@
       <c r="G39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3557,7 +3555,7 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" ht="20">
       <c r="A40" s="1" t="s">
         <v>92</v>
       </c>
@@ -3577,10 +3575,10 @@
       <c r="G40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="43"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -3590,7 +3588,7 @@
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" ht="16">
       <c r="A41" s="1" t="s">
         <v>92</v>
       </c>
@@ -3610,10 +3608,10 @@
       <c r="G41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -3623,7 +3621,7 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" ht="20">
       <c r="A42" s="1" t="s">
         <v>97</v>
       </c>
@@ -3641,10 +3639,10 @@
       <c r="G42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -3653,7 +3651,7 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" ht="20">
       <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
@@ -3673,10 +3671,10 @@
       <c r="G43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="43"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3686,7 +3684,7 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="20">
       <c r="A44" s="1" t="s">
         <v>97</v>
       </c>
@@ -3706,10 +3704,10 @@
       <c r="G44" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="43"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3719,7 +3717,7 @@
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="20">
       <c r="A45" s="1" t="s">
         <v>102</v>
       </c>
@@ -3737,10 +3735,10 @@
       <c r="G45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="43"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3750,7 +3748,7 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" ht="20">
       <c r="A46" s="16" t="s">
         <v>102</v>
       </c>
@@ -3773,9 +3771,9 @@
         <v>26</v>
       </c>
       <c r="H46" s="46"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
@@ -3792,7 +3790,7 @@
       <c r="Y46" s="18"/>
       <c r="Z46" s="18"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" ht="19">
       <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
@@ -3810,12 +3808,12 @@
       <c r="G47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H47" s="43"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -3823,7 +3821,7 @@
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" ht="16">
       <c r="A48" s="1" t="s">
         <v>106</v>
       </c>
@@ -3843,12 +3841,12 @@
       <c r="G48" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H48" s="43"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -3856,7 +3854,7 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" ht="18">
       <c r="A49" s="1" t="s">
         <v>111</v>
       </c>
@@ -3870,24 +3868,24 @@
       <c r="E49" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="42"/>
+      <c r="F49" s="43"/>
       <c r="G49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="43"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" ht="16">
       <c r="A50" s="1" t="s">
         <v>111</v>
       </c>
@@ -3900,27 +3898,27 @@
       <c r="D50" s="7">
         <v>34.5</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="42"/>
+      <c r="F50" s="43"/>
       <c r="G50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H50" s="43"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" ht="19">
       <c r="A51" s="1" t="s">
         <v>115</v>
       </c>
@@ -3938,12 +3936,12 @@
       <c r="G51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H51" s="43"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -3951,7 +3949,7 @@
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" ht="16">
       <c r="A52" s="1" t="s">
         <v>115</v>
       </c>
@@ -3964,19 +3962,19 @@
       <c r="D52" s="7">
         <v>34.5</v>
       </c>
-      <c r="E52" s="47" t="s">
+      <c r="E52" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="42"/>
+      <c r="F52" s="43"/>
       <c r="G52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H52" s="43"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -4002,11 +4000,11 @@
       <c r="G53" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H53" s="43"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
       <c r="M53" s="2"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -4033,11 +4031,11 @@
       <c r="G54" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H54" s="43"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
       <c r="M54" s="2"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -4046,7 +4044,7 @@
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" ht="16">
       <c r="A55" s="2" t="s">
         <v>117</v>
       </c>
@@ -4066,11 +4064,11 @@
       <c r="G55" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H55" s="43"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
       <c r="M55" s="2"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -4093,18 +4091,18 @@
       <c r="E56" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F56" s="42"/>
+      <c r="F56" s="43"/>
       <c r="G56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H56" s="43"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="42"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -4123,21 +4121,21 @@
       <c r="D57" s="7">
         <v>32.5</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="42"/>
+      <c r="F57" s="43"/>
       <c r="G57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H57" s="43"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -4157,18 +4155,18 @@
       <c r="E58" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F58" s="42"/>
+      <c r="F58" s="43"/>
       <c r="G58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H58" s="43"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -4187,21 +4185,21 @@
       <c r="D59" s="7">
         <v>32.5</v>
       </c>
-      <c r="E59" s="47" t="s">
+      <c r="E59" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="42"/>
+      <c r="F59" s="43"/>
       <c r="G59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H59" s="43"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -4225,10 +4223,10 @@
       <c r="G60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="43"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -4260,15 +4258,15 @@
       <c r="G61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H61" s="43"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
       <c r="L61" s="1"/>
       <c r="M61" s="45"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -4295,10 +4293,10 @@
       <c r="G62" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H62" s="43"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -4326,11 +4324,11 @@
       <c r="G63" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H63" s="43"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
@@ -4352,18 +4350,18 @@
       <c r="D64" s="3">
         <v>34.5</v>
       </c>
-      <c r="E64" s="47" t="s">
+      <c r="E64" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F64" s="42"/>
+      <c r="F64" s="43"/>
       <c r="G64" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H64" s="43"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -4390,15 +4388,15 @@
       <c r="G65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H65" s="43"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
       <c r="L65" s="1"/>
       <c r="M65" s="45"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -4425,15 +4423,15 @@
       <c r="G66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H66" s="43"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
       <c r="L66" s="1"/>
       <c r="M66" s="45"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
+      <c r="N66" s="43"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="43"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -4460,15 +4458,15 @@
       <c r="G67" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H67" s="43"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
       <c r="L67" s="1"/>
       <c r="M67" s="45"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -4491,11 +4489,11 @@
       <c r="G68" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H68" s="43"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
@@ -4526,11 +4524,11 @@
       <c r="G69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H69" s="43"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
@@ -4553,14 +4551,14 @@
       <c r="E70" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="F70" s="42"/>
+      <c r="F70" s="43"/>
       <c r="G70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H70" s="43"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -4590,10 +4588,10 @@
       <c r="G71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H71" s="43"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="O71" s="1"/>
@@ -4615,17 +4613,17 @@
       <c r="D72" s="7">
         <v>37.5</v>
       </c>
-      <c r="E72" s="47" t="s">
+      <c r="E72" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="42"/>
+      <c r="F72" s="43"/>
       <c r="G72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H72" s="43"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="O72" s="1"/>
@@ -4656,10 +4654,10 @@
       <c r="G73" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H73" s="43"/>
-      <c r="I73" s="42"/>
-      <c r="J73" s="42"/>
-      <c r="K73" s="42"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -4689,10 +4687,10 @@
       <c r="G74" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H74" s="43"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -4720,10 +4718,10 @@
       <c r="G75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H75" s="43"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -4755,10 +4753,10 @@
       <c r="G76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H76" s="43"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -4786,15 +4784,15 @@
         <v>482</v>
       </c>
       <c r="G77" s="1"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
       <c r="M77" s="45"/>
-      <c r="N77" s="42"/>
-      <c r="O77" s="42"/>
-      <c r="P77" s="42"/>
+      <c r="N77" s="43"/>
+      <c r="O77" s="43"/>
+      <c r="P77" s="43"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -4817,15 +4815,15 @@
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
       <c r="M78" s="45"/>
-      <c r="N78" s="42"/>
-      <c r="O78" s="42"/>
-      <c r="P78" s="42"/>
+      <c r="N78" s="43"/>
+      <c r="O78" s="43"/>
+      <c r="P78" s="43"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
@@ -4848,14 +4846,14 @@
       <c r="G79" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H79" s="43"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
-      <c r="L79" s="42"/>
-      <c r="M79" s="42"/>
-      <c r="N79" s="42"/>
-      <c r="O79" s="42"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="43"/>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43"/>
+      <c r="N79" s="43"/>
+      <c r="O79" s="43"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
@@ -4874,21 +4872,21 @@
       <c r="D80" s="3">
         <v>32.5</v>
       </c>
-      <c r="E80" s="47" t="s">
+      <c r="E80" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F80" s="42"/>
+      <c r="F80" s="43"/>
       <c r="G80" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H80" s="43"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
-      <c r="M80" s="42"/>
-      <c r="N80" s="42"/>
-      <c r="O80" s="42"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
@@ -4912,11 +4910,11 @@
       <c r="G81" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H81" s="43"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="43"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="43"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -4947,11 +4945,11 @@
       <c r="G82" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H82" s="43"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="43"/>
+      <c r="K82" s="43"/>
+      <c r="L82" s="43"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -4982,11 +4980,11 @@
       <c r="G83" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H83" s="43"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="42"/>
-      <c r="L83" s="42"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="43"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="43"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -5011,19 +5009,19 @@
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="42"/>
-      <c r="J84" s="42"/>
-      <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
-      <c r="M84" s="42"/>
-      <c r="N84" s="42"/>
-      <c r="O84" s="42"/>
-      <c r="P84" s="42"/>
-      <c r="Q84" s="42"/>
-      <c r="R84" s="42"/>
-      <c r="S84" s="42"/>
-      <c r="T84" s="42"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="43"/>
+      <c r="O84" s="43"/>
+      <c r="P84" s="43"/>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="43"/>
+      <c r="S84" s="43"/>
+      <c r="T84" s="43"/>
     </row>
     <row r="85" spans="1:20" ht="20">
       <c r="A85" s="1" t="s">
@@ -5045,19 +5043,19 @@
         <v>917</v>
       </c>
       <c r="G85" s="1"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
-      <c r="L85" s="42"/>
-      <c r="M85" s="42"/>
-      <c r="N85" s="42"/>
-      <c r="O85" s="42"/>
-      <c r="P85" s="42"/>
-      <c r="Q85" s="42"/>
-      <c r="R85" s="42"/>
-      <c r="S85" s="42"/>
-      <c r="T85" s="42"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="43"/>
+      <c r="O85" s="43"/>
+      <c r="P85" s="43"/>
+      <c r="Q85" s="43"/>
+      <c r="R85" s="43"/>
+      <c r="S85" s="43"/>
+      <c r="T85" s="43"/>
     </row>
     <row r="86" spans="1:20" ht="16">
       <c r="A86" s="1" t="s">
@@ -5198,10 +5196,10 @@
       <c r="D90" s="3">
         <v>31.8</v>
       </c>
-      <c r="E90" s="47" t="s">
+      <c r="E90" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="42"/>
+      <c r="F90" s="43"/>
       <c r="G90" s="1"/>
       <c r="H90" s="2"/>
       <c r="I90" s="1"/>
@@ -5385,10 +5383,10 @@
       <c r="D96" s="2">
         <v>22.8</v>
       </c>
-      <c r="E96" s="47" t="s">
+      <c r="E96" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F96" s="42"/>
+      <c r="F96" s="43"/>
       <c r="G96" s="2" t="s">
         <v>135</v>
       </c>
@@ -5449,10 +5447,10 @@
       <c r="D98" s="2">
         <v>22.8</v>
       </c>
-      <c r="E98" s="47" t="s">
+      <c r="E98" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F98" s="42"/>
+      <c r="F98" s="43"/>
       <c r="G98" s="2" t="s">
         <v>135</v>
       </c>
@@ -5546,10 +5544,10 @@
       <c r="D101" s="7">
         <v>37.69</v>
       </c>
-      <c r="E101" s="47" t="s">
+      <c r="E101" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="42"/>
+      <c r="F101" s="43"/>
       <c r="G101" s="2" t="s">
         <v>135</v>
       </c>
@@ -5641,10 +5639,10 @@
       <c r="D104" s="3">
         <v>32.5</v>
       </c>
-      <c r="E104" s="47" t="s">
+      <c r="E104" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F104" s="42"/>
+      <c r="F104" s="43"/>
       <c r="G104" s="2" t="s">
         <v>135</v>
       </c>
@@ -5705,10 +5703,10 @@
       <c r="D106" s="3">
         <v>34.5</v>
       </c>
-      <c r="E106" s="47" t="s">
+      <c r="E106" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="42"/>
+      <c r="F106" s="43"/>
       <c r="G106" s="2" t="s">
         <v>135</v>
       </c>
@@ -5789,10 +5787,10 @@
       <c r="D109" s="7">
         <v>41.05</v>
       </c>
-      <c r="E109" s="47" t="s">
+      <c r="E109" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F109" s="42"/>
+      <c r="F109" s="43"/>
       <c r="G109" s="2"/>
       <c r="H109" s="33"/>
     </row>
@@ -5827,10 +5825,10 @@
       <c r="D111" s="7">
         <v>37.89</v>
       </c>
-      <c r="E111" s="47" t="s">
+      <c r="E111" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F111" s="42"/>
+      <c r="F111" s="43"/>
     </row>
     <row r="112" spans="1:19" ht="16">
       <c r="A112" s="1" t="s">
@@ -5864,10 +5862,10 @@
       <c r="D113" s="7">
         <v>36.78</v>
       </c>
-      <c r="E113" s="47" t="s">
+      <c r="E113" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F113" s="42"/>
+      <c r="F113" s="43"/>
       <c r="H113" s="34"/>
     </row>
     <row r="114" spans="1:26" ht="16">
@@ -6146,10 +6144,10 @@
       <c r="D126" s="3">
         <v>42</v>
       </c>
-      <c r="E126" s="47" t="s">
+      <c r="E126" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F126" s="42"/>
+      <c r="F126" s="43"/>
       <c r="G126" s="18"/>
       <c r="H126" s="19"/>
       <c r="I126" s="18"/>
@@ -6335,10 +6333,10 @@
       <c r="D132" s="7">
         <v>37</v>
       </c>
-      <c r="E132" s="47" t="s">
+      <c r="E132" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F132" s="42"/>
+      <c r="F132" s="43"/>
       <c r="G132" s="1"/>
       <c r="H132" s="8"/>
       <c r="I132" s="1"/>
@@ -6778,6 +6776,98 @@
     </row>
   </sheetData>
   <mergeCells count="116">
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="M77:P77"/>
+    <mergeCell ref="H78:L78"/>
+    <mergeCell ref="M78:P78"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="H84:T84"/>
+    <mergeCell ref="H85:T85"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E109:F109"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:N50"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="H70:K70"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="E80:F80"/>
     <mergeCell ref="H51:M51"/>
@@ -6802,98 +6892,6 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="M65:P65"/>
     <mergeCell ref="H66:K66"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:N49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="H50:N50"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E104:F104"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E109:F109"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="H79:O79"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="H82:L82"/>
-    <mergeCell ref="H83:L83"/>
-    <mergeCell ref="H84:T84"/>
-    <mergeCell ref="H85:T85"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="M77:P77"/>
-    <mergeCell ref="H78:L78"/>
-    <mergeCell ref="M78:P78"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>

--- a/data/historical-distributions.xlsx
+++ b/data/historical-distributions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="372">
   <si>
     <t>latin_name</t>
   </si>
@@ -1592,6 +1592,9 @@
     <t>Pyrosoma sp.</t>
   </si>
   <si>
+    <t>Pyrosoma</t>
+  </si>
+  <si>
     <t>Rhincalanus nasutus</t>
   </si>
   <si>
@@ -1729,6 +1732,9 @@
   </si>
   <si>
     <t>cosmopolitan species</t>
+  </si>
+  <si>
+    <t>Thetys</t>
   </si>
   <si>
     <t>Uca princeps</t>
@@ -1876,6 +1882,9 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Velella</t>
+  </si>
+  <si>
+    <t>Velella</t>
   </si>
   <si>
     <t>Books</t>
@@ -5643,8 +5652,12 @@
       <c r="D102" s="10">
         <v>36.78</v>
       </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
+      <c r="E102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" s="2">
+        <v>948.0</v>
+      </c>
       <c r="G102" s="2" t="s">
         <v>165</v>
       </c>
@@ -6144,29 +6157,30 @@
       <c r="S122" s="3"/>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C123" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="D123" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C123" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="D123" s="2">
+        <v>40.0</v>
+      </c>
       <c r="E123" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="9" t="s">
-        <v>316</v>
+      <c r="H123" s="41" t="s">
+        <v>311</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
-      <c r="M123" s="2"/>
+      <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
@@ -6176,24 +6190,22 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C124" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D124" s="2">
-        <v>34.5</v>
-      </c>
+      <c r="C124" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D124" s="2"/>
       <c r="E124" s="2" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
@@ -6209,22 +6221,24 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C125" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="D125" s="2"/>
+      <c r="C125" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D125" s="2">
+        <v>34.5</v>
+      </c>
       <c r="E125" s="2" t="s">
-        <v>319</v>
+        <v>57</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -6239,94 +6253,93 @@
       <c r="S125" s="3"/>
     </row>
     <row r="126">
-      <c r="A126" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="B126" s="22" t="s">
+      <c r="A126" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="D126" s="8">
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D127" s="8">
         <v>42.0</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E127" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G126" s="26"/>
-      <c r="H126" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="I126" s="26"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="26"/>
-      <c r="L126" s="26"/>
-      <c r="M126" s="22"/>
-      <c r="N126" s="26"/>
-      <c r="O126" s="26"/>
-      <c r="P126" s="26"/>
-      <c r="Q126" s="26"/>
-      <c r="R126" s="26"/>
-      <c r="S126" s="26"/>
-      <c r="T126" s="26"/>
-      <c r="U126" s="26"/>
-      <c r="V126" s="26"/>
-      <c r="W126" s="26"/>
-      <c r="X126" s="26"/>
-      <c r="Y126" s="26"/>
-      <c r="Z126" s="26"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="I127" s="3"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
-      <c r="L127" s="3"/>
-      <c r="N127" s="3"/>
-      <c r="O127" s="3"/>
-      <c r="P127" s="3"/>
-      <c r="Q127" s="3"/>
-      <c r="R127" s="3"/>
-      <c r="S127" s="3"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="I127" s="26"/>
+      <c r="J127" s="26"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="26"/>
+      <c r="M127" s="22"/>
+      <c r="N127" s="26"/>
+      <c r="O127" s="26"/>
+      <c r="P127" s="26"/>
+      <c r="Q127" s="26"/>
+      <c r="R127" s="26"/>
+      <c r="S127" s="26"/>
+      <c r="T127" s="26"/>
+      <c r="U127" s="26"/>
+      <c r="V127" s="26"/>
+      <c r="W127" s="26"/>
+      <c r="X127" s="26"/>
+      <c r="Y127" s="26"/>
+      <c r="Z127" s="26"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D128" s="2">
-        <v>34.5</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
-        <v>57</v>
+        <v>325</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -6341,32 +6354,29 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>327</v>
+        <v>55</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>328</v>
+        <v>56</v>
       </c>
       <c r="D129" s="2">
         <v>34.5</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F129" s="2">
-        <v>735.0</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
-      <c r="M129" s="2"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
@@ -6376,24 +6386,26 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1" t="s">
-        <v>12</v>
+        <v>329</v>
+      </c>
+      <c r="D130" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F130" s="2">
-        <v>68.0</v>
+        <v>735.0</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -6409,28 +6421,30 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F131" s="3"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="2">
+        <v>68.0</v>
+      </c>
       <c r="G131" s="3"/>
       <c r="H131" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
-      <c r="M131" s="3"/>
+      <c r="M131" s="2"/>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
@@ -6440,23 +6454,22 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C132" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="D132" s="10">
-        <v>36.0</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -6472,26 +6485,23 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C133" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D133" s="11">
-        <v>37.5</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F133" s="2">
-        <v>482.0</v>
+      <c r="D133" s="10">
+        <v>36.0</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="9" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -6507,22 +6517,26 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C134" s="47" t="s">
-        <v>341</v>
-      </c>
-      <c r="D134" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D134" s="11">
+        <v>37.5</v>
+      </c>
       <c r="E134" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F134" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F134" s="2">
+        <v>482.0</v>
+      </c>
       <c r="G134" s="3"/>
       <c r="H134" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -6538,22 +6552,22 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C135" s="39" t="s">
-        <v>344</v>
+        <v>339</v>
+      </c>
+      <c r="C135" s="47" t="s">
+        <v>342</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F135" s="3"/>
+        <v>343</v>
+      </c>
+      <c r="F135" s="2"/>
       <c r="G135" s="3"/>
       <c r="H135" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
@@ -6569,24 +6583,22 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C136" s="39" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F136" s="2">
-        <v>82.0</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -6602,22 +6614,24 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C137" s="48" t="s">
+      <c r="C137" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="D137" s="2">
-        <v>35.0</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F137" s="2">
+        <v>82.0</v>
+      </c>
       <c r="G137" s="3"/>
       <c r="H137" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -6633,24 +6647,22 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C138" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F138" s="2">
-        <v>82.0</v>
-      </c>
+      <c r="D138" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
       <c r="G138" s="3"/>
       <c r="H138" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -6666,24 +6678,24 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F139" s="2">
-        <v>964.0</v>
+        <v>82.0</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -6699,17 +6711,15 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C140" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D140" s="2">
-        <v>42.0</v>
-      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="2" t="s">
         <v>29</v>
       </c>
@@ -6718,7 +6728,7 @@
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -6734,22 +6744,26 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C141" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C141" s="40" t="s">
-        <v>356</v>
-      </c>
-      <c r="D141" s="2"/>
+      <c r="D141" s="2">
+        <v>42.0</v>
+      </c>
       <c r="E141" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F141" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="F141" s="2">
+        <v>964.0</v>
+      </c>
       <c r="G141" s="3"/>
       <c r="H141" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -6764,25 +6778,27 @@
       <c r="S141" s="3"/>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C142" s="48" t="s">
         <v>354</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C142" s="35" t="s">
-        <v>358</v>
-      </c>
       <c r="D142" s="2">
-        <v>22.8</v>
-      </c>
-      <c r="E142" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="F142" s="3"/>
+        <v>42.0</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F142" s="2">
+        <v>964.0</v>
+      </c>
       <c r="G142" s="3"/>
       <c r="H142" s="9" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
@@ -6798,26 +6814,22 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D143" s="2">
-        <v>34.5</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C143" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="D143" s="2"/>
       <c r="E143" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F143" s="2">
-        <v>31.0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -6832,14 +6844,26 @@
       <c r="S143" s="3"/>
     </row>
     <row r="144">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
+      <c r="A144" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C144" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="D144" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="E144" s="30" t="s">
+        <v>361</v>
+      </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
+      <c r="H144" s="9" t="s">
+        <v>359</v>
+      </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -6853,14 +6877,28 @@
       <c r="S144" s="3"/>
     </row>
     <row r="145">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
+      <c r="A145" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D145" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F145" s="2">
+        <v>31.0</v>
+      </c>
       <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
+      <c r="H145" s="9" t="s">
+        <v>365</v>
+      </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
@@ -6874,14 +6912,28 @@
       <c r="S145" s="3"/>
     </row>
     <row r="146">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
+      <c r="A146" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D146" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F146" s="2">
+        <v>31.0</v>
+      </c>
       <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
+      <c r="H146" s="9" t="s">
+        <v>365</v>
+      </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -6914,6 +6966,48 @@
       <c r="Q147" s="3"/>
       <c r="R147" s="3"/>
       <c r="S147" s="3"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="116">
@@ -6981,8 +7075,8 @@
     <mergeCell ref="H85:T85"/>
     <mergeCell ref="E90:F90"/>
     <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E133:F133"/>
     <mergeCell ref="E96:F96"/>
     <mergeCell ref="E98:F98"/>
     <mergeCell ref="E101:F101"/>
@@ -7158,8 +7252,8 @@
     <hyperlink r:id="rId121" ref="H120"/>
     <hyperlink r:id="rId122" ref="H121"/>
     <hyperlink r:id="rId123" ref="H122"/>
-    <hyperlink r:id="rId124" ref="C123"/>
-    <hyperlink r:id="rId125" ref="H123"/>
+    <hyperlink r:id="rId124" ref="H123"/>
+    <hyperlink r:id="rId125" ref="C124"/>
     <hyperlink r:id="rId126" ref="H124"/>
     <hyperlink r:id="rId127" ref="H125"/>
     <hyperlink r:id="rId128" ref="H126"/>
@@ -7177,13 +7271,16 @@
     <hyperlink r:id="rId140" ref="H138"/>
     <hyperlink r:id="rId141" ref="H139"/>
     <hyperlink r:id="rId142" ref="H140"/>
-    <hyperlink r:id="rId143" ref="C141"/>
-    <hyperlink r:id="rId144" ref="H141"/>
-    <hyperlink r:id="rId145" ref="E142"/>
-    <hyperlink r:id="rId146" ref="H142"/>
-    <hyperlink r:id="rId147" ref="H143"/>
+    <hyperlink r:id="rId143" ref="H141"/>
+    <hyperlink r:id="rId144" ref="H142"/>
+    <hyperlink r:id="rId145" ref="C143"/>
+    <hyperlink r:id="rId146" ref="H143"/>
+    <hyperlink r:id="rId147" ref="E144"/>
+    <hyperlink r:id="rId148" ref="H144"/>
+    <hyperlink r:id="rId149" ref="H145"/>
+    <hyperlink r:id="rId150" ref="H146"/>
   </hyperlinks>
-  <drawing r:id="rId148"/>
+  <drawing r:id="rId151"/>
 </worksheet>
 </file>
 
@@ -7199,15 +7296,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3">
@@ -7227,12 +7324,12 @@
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8">

--- a/data/historical-distributions.xlsx
+++ b/data/historical-distributions.xlsx
@@ -47,7 +47,7 @@
     <t>American seashells</t>
   </si>
   <si>
-    <t>may have gotten mixed up with acanthina punctulata</t>
+    <t>may have gotten mixed up with acanthina punctulata (would have range edge of 38.1 if that's the case)</t>
   </si>
   <si>
     <t>Field Guid to Pacific Coast Shells</t>
@@ -1957,8 +1957,9 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FF9900FF"/>
-      <name val="&quot;Aptos Narrow&quot;"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -2083,7 +2084,7 @@
     </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
@@ -2174,11 +2175,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -2571,7 +2572,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2584,7 +2585,7 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>211.0</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2600,7 +2601,7 @@
       <c r="R2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2609,7 +2610,9 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="5">
+        <v>47.72</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2629,7 +2632,7 @@
       <c r="R3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2638,9 +2641,7 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7">
-        <v>38.1</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
@@ -2956,7 +2957,7 @@
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>485.0</v>
       </c>
       <c r="G14" s="3"/>
@@ -4412,7 +4413,7 @@
       <c r="E62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <v>176.0</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -4746,7 +4747,7 @@
       <c r="E73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="4">
         <v>97.0</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -4874,7 +4875,7 @@
       <c r="E77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="4">
         <v>482.0</v>
       </c>
       <c r="G77" s="3"/>
@@ -4902,7 +4903,7 @@
       <c r="E78" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F78" s="5"/>
+      <c r="F78" s="4"/>
       <c r="G78" s="3"/>
       <c r="H78" s="9" t="s">
         <v>201</v>
@@ -5043,7 +5044,7 @@
       <c r="E83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="4">
         <v>128.0</v>
       </c>
       <c r="G83" s="1" t="s">

--- a/data/historical-distributions.xlsx
+++ b/data/historical-distributions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="371">
   <si>
     <t>latin_name</t>
   </si>
@@ -1587,9 +1587,6 @@
   </si>
   <si>
     <t>tropical and temperate Atlantic, Pacific, and Indian Oceans</t>
-  </si>
-  <si>
-    <t>Pyrosoma sp.</t>
   </si>
   <si>
     <t>Pyrosoma</t>
@@ -1938,7 +1935,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2123,11 +2120,6 @@
       <name val="&quot;Open Sans&quot;"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
       <color rgb="FF111111"/>
       <name val="Arial"/>
     </font>
@@ -2298,16 +2290,16 @@
     <xf borderId="0" fillId="2" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -6126,22 +6118,24 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>313</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C122" s="43" t="s">
-        <v>310</v>
+      <c r="C122" s="35" t="s">
+        <v>312</v>
       </c>
       <c r="D122" s="2">
         <v>40.0</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F122" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="F122" s="2">
+        <v>84.0</v>
+      </c>
       <c r="H122" s="41" t="s">
         <v>311</v>
       </c>
@@ -6158,30 +6152,29 @@
       <c r="S122" s="3"/>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C123" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="D123" s="2">
-        <v>40.0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F123" s="3"/>
-      <c r="H123" s="41" t="s">
-        <v>311</v>
+      <c r="G123" s="3"/>
+      <c r="H123" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
-      <c r="M123" s="3"/>
+      <c r="M123" s="2"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
@@ -6191,22 +6184,24 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C124" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="D124" s="2"/>
+      <c r="C124" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D124" s="2">
+        <v>34.5</v>
+      </c>
       <c r="E124" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
@@ -6222,24 +6217,22 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C125" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D125" s="2">
-        <v>34.5</v>
-      </c>
+      <c r="C125" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D125" s="2"/>
       <c r="E125" s="2" t="s">
-        <v>57</v>
+        <v>319</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -6254,93 +6247,94 @@
       <c r="S125" s="3"/>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B126" s="2" t="s">
+      <c r="A126" s="45" t="s">
+        <v>317</v>
+      </c>
+      <c r="B126" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C126" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2" t="s">
+      <c r="C126" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D126" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G126" s="26"/>
+      <c r="H126" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="I126" s="3"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
-      <c r="L126" s="3"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="3"/>
-      <c r="O126" s="3"/>
-      <c r="P126" s="3"/>
-      <c r="Q126" s="3"/>
-      <c r="R126" s="3"/>
-      <c r="S126" s="3"/>
+      <c r="I126" s="26"/>
+      <c r="J126" s="26"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="26"/>
+      <c r="M126" s="22"/>
+      <c r="N126" s="26"/>
+      <c r="O126" s="26"/>
+      <c r="P126" s="26"/>
+      <c r="Q126" s="26"/>
+      <c r="R126" s="26"/>
+      <c r="S126" s="26"/>
+      <c r="T126" s="26"/>
+      <c r="U126" s="26"/>
+      <c r="V126" s="26"/>
+      <c r="W126" s="26"/>
+      <c r="X126" s="26"/>
+      <c r="Y126" s="26"/>
+      <c r="Z126" s="26"/>
     </row>
     <row r="127">
-      <c r="A127" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="B127" s="22" t="s">
+      <c r="A127" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D127" s="8">
-        <v>42.0</v>
-      </c>
-      <c r="E127" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" s="26"/>
-      <c r="H127" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="I127" s="26"/>
-      <c r="J127" s="26"/>
-      <c r="K127" s="26"/>
-      <c r="L127" s="26"/>
-      <c r="M127" s="22"/>
-      <c r="N127" s="26"/>
-      <c r="O127" s="26"/>
-      <c r="P127" s="26"/>
-      <c r="Q127" s="26"/>
-      <c r="R127" s="26"/>
-      <c r="S127" s="26"/>
-      <c r="T127" s="26"/>
-      <c r="U127" s="26"/>
-      <c r="V127" s="26"/>
-      <c r="W127" s="26"/>
-      <c r="X127" s="26"/>
-      <c r="Y127" s="26"/>
-      <c r="Z127" s="26"/>
+      <c r="C127" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D128" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="D128" s="2">
+        <v>34.5</v>
+      </c>
       <c r="E128" s="2" t="s">
-        <v>325</v>
+        <v>57</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -6355,29 +6349,32 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>56</v>
+        <v>328</v>
       </c>
       <c r="D129" s="2">
         <v>34.5</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F129" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="F129" s="2">
+        <v>735.0</v>
+      </c>
       <c r="G129" s="3"/>
       <c r="H129" s="9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
+      <c r="M129" s="2"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
@@ -6387,26 +6384,24 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D130" s="2">
-        <v>34.5</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>29</v>
+        <v>331</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F130" s="2">
-        <v>735.0</v>
+        <v>68.0</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
@@ -6422,30 +6417,28 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="2">
-        <v>68.0</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="9" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
-      <c r="M131" s="2"/>
+      <c r="M131" s="3"/>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
@@ -6455,22 +6448,24 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D132" s="2"/>
+      <c r="C132" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="D132" s="10">
+        <v>36.0</v>
+      </c>
       <c r="E132" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
@@ -6486,23 +6481,26 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C133" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="D133" s="10">
-        <v>36.0</v>
-      </c>
-      <c r="E133" s="8" t="s">
-        <v>14</v>
+        <v>338</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D133" s="11">
+        <v>37.5</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="2">
+        <v>482.0</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -6518,26 +6516,22 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D134" s="11">
-        <v>37.5</v>
-      </c>
+      <c r="C134" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F134" s="2">
-        <v>482.0</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="F134" s="2"/>
       <c r="G134" s="3"/>
       <c r="H134" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -6553,22 +6547,22 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C135" s="47" t="s">
-        <v>342</v>
+        <v>95</v>
+      </c>
+      <c r="C135" s="39" t="s">
+        <v>344</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F135" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
@@ -6584,22 +6578,23 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C136" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="D136" s="2"/>
+        <v>346</v>
+      </c>
       <c r="E136" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F136" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="F136" s="2">
+        <v>82.0</v>
+      </c>
       <c r="G136" s="3"/>
       <c r="H136" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -6615,24 +6610,23 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C137" s="39" t="s">
+      <c r="C137" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F137" s="2">
-        <v>82.0</v>
+      <c r="D137" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -6648,22 +6642,24 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C138" s="48" t="s">
-        <v>348</v>
-      </c>
-      <c r="D138" s="2">
-        <v>35.0</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F138" s="2">
+        <v>82.0</v>
+      </c>
       <c r="G138" s="3"/>
       <c r="H138" s="9" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -6678,25 +6674,25 @@
       <c r="S138" s="3"/>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="F139" s="2">
-        <v>82.0</v>
+        <v>964.0</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -6712,15 +6708,17 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="48" t="s">
         <v>353</v>
       </c>
-      <c r="D140" s="2"/>
+      <c r="D140" s="2">
+        <v>42.0</v>
+      </c>
       <c r="E140" s="2" t="s">
         <v>29</v>
       </c>
@@ -6729,7 +6727,7 @@
       </c>
       <c r="G140" s="3"/>
       <c r="H140" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -6744,14 +6742,14 @@
       <c r="S140" s="3"/>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="C141" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D141" s="2">
         <v>42.0</v>
@@ -6764,7 +6762,7 @@
       </c>
       <c r="G141" s="3"/>
       <c r="H141" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
@@ -6779,27 +6777,23 @@
       <c r="S141" s="3"/>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C142" s="48" t="s">
-        <v>354</v>
-      </c>
-      <c r="D142" s="2">
-        <v>42.0</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C142" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F142" s="2">
-        <v>964.0</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="9" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
@@ -6815,22 +6809,24 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C143" s="40" t="s">
-        <v>358</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2" t="s">
-        <v>18</v>
+      <c r="C143" s="35" t="s">
+        <v>359</v>
+      </c>
+      <c r="D143" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="E143" s="30" t="s">
+        <v>360</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
@@ -6846,24 +6842,26 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C144" s="35" t="s">
-        <v>360</v>
+        <v>362</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="D144" s="2">
-        <v>22.8</v>
-      </c>
-      <c r="E144" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="F144" s="3"/>
+        <v>34.5</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F144" s="2">
+        <v>31.0</v>
+      </c>
       <c r="G144" s="3"/>
       <c r="H144" s="9" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
@@ -6878,14 +6876,14 @@
       <c r="S144" s="3"/>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="D145" s="2">
         <v>34.5</v>
@@ -6898,7 +6896,7 @@
       </c>
       <c r="G145" s="3"/>
       <c r="H145" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
@@ -6913,28 +6911,14 @@
       <c r="S145" s="3"/>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D146" s="2">
-        <v>34.5</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F146" s="2">
-        <v>31.0</v>
-      </c>
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="9" t="s">
-        <v>365</v>
-      </c>
+      <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -6988,27 +6972,6 @@
       <c r="Q148" s="3"/>
       <c r="R148" s="3"/>
       <c r="S148" s="3"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="3"/>
-      <c r="K149" s="3"/>
-      <c r="L149" s="3"/>
-      <c r="M149" s="3"/>
-      <c r="N149" s="3"/>
-      <c r="O149" s="3"/>
-      <c r="P149" s="3"/>
-      <c r="Q149" s="3"/>
-      <c r="R149" s="3"/>
-      <c r="S149" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="116">
@@ -7076,8 +7039,8 @@
     <mergeCell ref="H85:T85"/>
     <mergeCell ref="E90:F90"/>
     <mergeCell ref="E113:F113"/>
-    <mergeCell ref="E127:F127"/>
-    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E137:F137"/>
     <mergeCell ref="E96:F96"/>
     <mergeCell ref="E98:F98"/>
     <mergeCell ref="E101:F101"/>
@@ -7253,8 +7216,8 @@
     <hyperlink r:id="rId121" ref="H120"/>
     <hyperlink r:id="rId122" ref="H121"/>
     <hyperlink r:id="rId123" ref="H122"/>
-    <hyperlink r:id="rId124" ref="H123"/>
-    <hyperlink r:id="rId125" ref="C124"/>
+    <hyperlink r:id="rId124" ref="C123"/>
+    <hyperlink r:id="rId125" ref="H123"/>
     <hyperlink r:id="rId126" ref="H124"/>
     <hyperlink r:id="rId127" ref="H125"/>
     <hyperlink r:id="rId128" ref="H126"/>
@@ -7273,15 +7236,14 @@
     <hyperlink r:id="rId141" ref="H139"/>
     <hyperlink r:id="rId142" ref="H140"/>
     <hyperlink r:id="rId143" ref="H141"/>
-    <hyperlink r:id="rId144" ref="H142"/>
-    <hyperlink r:id="rId145" ref="C143"/>
-    <hyperlink r:id="rId146" ref="H143"/>
-    <hyperlink r:id="rId147" ref="E144"/>
+    <hyperlink r:id="rId144" ref="C142"/>
+    <hyperlink r:id="rId145" ref="H142"/>
+    <hyperlink r:id="rId146" ref="E143"/>
+    <hyperlink r:id="rId147" ref="H143"/>
     <hyperlink r:id="rId148" ref="H144"/>
     <hyperlink r:id="rId149" ref="H145"/>
-    <hyperlink r:id="rId150" ref="H146"/>
   </hyperlinks>
-  <drawing r:id="rId151"/>
+  <drawing r:id="rId150"/>
 </worksheet>
 </file>
 
@@ -7297,15 +7259,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>367</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3">
@@ -7325,12 +7287,12 @@
     </row>
     <row r="6">
       <c r="A6" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8">
